--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.010920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.010920.xlsx_with_dialog_acts.xlsx
@@ -665,12 +665,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2763,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2839,12 +2839,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3105,12 +3105,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5165,12 +5165,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5355,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6761,12 +6761,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7293,12 +7293,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7559,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7673,12 +7673,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8547,12 +8547,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8851,12 +8851,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9877,12 +9877,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10447,12 +10447,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11971,12 +11971,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12009,12 +12009,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12275,12 +12275,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12959,12 +12959,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13225,12 +13225,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13609,12 +13609,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13689,12 +13689,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14035,12 +14035,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14989,12 +14989,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15065,12 +15065,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15141,12 +15141,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15217,12 +15217,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15331,12 +15331,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15521,12 +15521,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15597,12 +15597,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15825,12 +15825,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15943,12 +15943,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15981,12 +15981,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16361,12 +16361,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16707,12 +16707,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16783,12 +16783,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17091,12 +17091,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17513,12 +17513,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18159,12 +18159,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18273,12 +18273,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18349,12 +18349,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18387,12 +18387,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18501,12 +18501,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18577,12 +18577,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18729,12 +18729,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19071,12 +19071,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19109,12 +19109,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19147,12 +19147,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19299,12 +19299,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19569,12 +19569,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19721,12 +19721,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20413,12 +20413,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20759,12 +20759,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21485,12 +21485,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21599,12 +21599,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
